--- a/medicine/Psychotrope/Brasserie_Duyck/Brasserie_Duyck.xlsx
+++ b/medicine/Psychotrope/Brasserie_Duyck/Brasserie_Duyck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Brasserie Duyck[1] est une brasserie indépendante  française, située dans la commune de Jenlain dans le département du Nord.
+La Brasserie Duyck est une brasserie indépendante  française, située dans la commune de Jenlain dans le département du Nord.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Fabrication et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 2013, le volume de fabrication de la brasserie est d’environ 110 000 hectolitres pour un marché national de 20 millions d’hectolitres.
 L'eau est toujours pompée directement dans une nappe phréatique située sous la brasserie. Elle est mélangée à du malt d'orge sélectionné, à du houblon venu d'Alsace et à du blé de Beauce. La préparation de la bière se déroule en plusieurs étapes
